--- a/csv/herramientas_prueba.xlsx
+++ b/csv/herramientas_prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Downloads\Python Otros\website-tools\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB04DC0-6E7E-4F47-9EF2-4C59D816AD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719CA5BB-ABB2-43A3-9368-7A7421FD392E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
